--- a/biology/Zoologie/Euselasia_cuprea/Euselasia_cuprea.xlsx
+++ b/biology/Zoologie/Euselasia_cuprea/Euselasia_cuprea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia cuprea est une espèce de papillons de la famille des Riodinidae et du genre Euselasia.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euselasia cuprea a été nommée par Percy Ireland Lathy en 1926[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia cuprea a été nommée par Percy Ireland Lathy en 1926
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia cuprea est de couleur beige, rayé alternativement de roux et de marron, avec aux antérieures trois marques proches de l'apex et aux postérieures une ligne submarginale de chevrons rouges et au milieu de la ligne un très gros ocelle noir. Le revers est noir.
 </t>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,12 +617,49 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Euselasia cuprea est présent uniquement en Guyane[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia cuprea est présent uniquement en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euselasia_cuprea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_cuprea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
